--- a/sequences/retrieval_blockB_fixed-middle-10_02.xlsx
+++ b/sequences/retrieval_blockB_fixed-middle-10_02.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="retrieval" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T61"/>
+  <dimension ref="A1:R61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,45 +491,35 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>is_yes</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>distance_correct</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>distance_left</t>
-        </is>
-      </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>distance_right</t>
+          <t>image_dur_retr</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>image_dur_retr</t>
+          <t>fix_dur_retr</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>fix_dur_retr</t>
+          <t>img_firstTrigNumber</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>is_yes</t>
+          <t>img_secondTrigNumber</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>img_firstTrigNumber</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>img_secondTrigNumber</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>img_thirdTrigNumber</t>
         </is>
@@ -537,7 +527,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -554,68 +544,60 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>stimuli/bicycle/bicycle_33.jpg</t>
+          <t>stimuli/hand/hand_40.jpg</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>stimuli/dog/dog_01.jpg</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>stimuli/bread/bread_07.jpg</t>
-        </is>
-      </c>
+          <t>stimuli/bread/bread_31.jpg</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>stimuli/dog/dog_01.jpg</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>stimuli/bread/bread_07.jpg</t>
+          <t>no</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N2" t="n">
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="O2" t="n">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="P2" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Q2" t="inlineStr"/>
+        <v>8</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3</v>
+      </c>
       <c r="R2" t="n">
-        <v>2</v>
-      </c>
-      <c r="S2" t="n">
-        <v>5</v>
-      </c>
-      <c r="T2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -632,68 +614,46 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>stimuli/ball/ball_15.jpg</t>
+          <t>stimuli/hammer/hammer_15.jpg</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>stimuli/chair/chair_07.jpg</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>stimuli/jacket/jacket_39.jpg</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>stimuli/chair/chair_07.jpg</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>stimuli/jacket/jacket_39.jpg</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
+          <t>stimuli/flower/flower_02.jpg</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>left</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>4</v>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N3" t="n">
+        <v>2</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P3" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q3" t="n">
         <v>6</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>1</v>
-      </c>
-      <c r="S3" t="n">
-        <v>4</v>
-      </c>
-      <c r="T3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -710,48 +670,62 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>stimuli/flower/flower_06.jpg</t>
+          <t>stimuli/ball/ball_18.jpg</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>stimuli/jacket/jacket_39.jpg</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+          <t>stimuli/chair/chair_15.jpg</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>stimuli/dog/dog_37.jpg</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>stimuli/chair/chair_15.jpg</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>stimuli/dog/dog_37.jpg</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O4" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
       <c r="R4" t="n">
-        <v>6</v>
-      </c>
-      <c r="S4" t="n">
-        <v>10</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -768,23 +742,27 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>stimuli/hand/hand_05.jpg</t>
+          <t>stimuli/jacket/jacket_16.jpg</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>stimuli/dog/dog_01.jpg</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
+          <t>stimuli/dog/dog_37.jpg</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>stimuli/house/house_29.jpg</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>stimuli/dog/dog_37.jpg</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>stimuli/house/house_29.jpg</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -797,28 +775,24 @@
           <t>right</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>3</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O5" t="n">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="P5" t="n">
-        <v>0.2</v>
+        <v>10</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R5" t="n">
-        <v>8</v>
-      </c>
-      <c r="S5" t="n">
-        <v>5</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -840,12 +814,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>stimuli/house/house_01.jpg</t>
+          <t>stimuli/bicycle/bicycle_21.jpg</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>stimuli/hammer/hammer_36.jpg</t>
+          <t>stimuli/dog/dog_37.jpg</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -872,30 +846,28 @@
       <c r="L6" t="n">
         <v>1</v>
       </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.2</v>
+      </c>
       <c r="O6" t="n">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="P6" t="n">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R6" t="n">
-        <v>9</v>
-      </c>
-      <c r="S6" t="n">
-        <v>7</v>
-      </c>
-      <c r="T6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -912,63 +884,55 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>stimuli/ball/ball_16.jpg</t>
+          <t>stimuli/ball/ball_28.jpg</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>stimuli/hand/hand_36.jpg</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>stimuli/dog/dog_10.jpg</t>
-        </is>
-      </c>
+          <t>stimuli/hand/hand_28.jpg</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>stimuli/hand/hand_36.jpg</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>stimuli/dog/dog_10.jpg</t>
+          <t>no</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="O7" t="n">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="P7" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Q7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>8</v>
+      </c>
       <c r="R7" t="n">
-        <v>1</v>
-      </c>
-      <c r="S7" t="n">
-        <v>8</v>
-      </c>
-      <c r="T7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -990,12 +954,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>stimuli/hammer/hammer_39.jpg</t>
+          <t>stimuli/hammer/hammer_21.jpg</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>stimuli/jacket/jacket_37.jpg</t>
+          <t>stimuli/house/house_08.jpg</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -1004,28 +968,26 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>4</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2</v>
+      </c>
       <c r="O8" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="P8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q8" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>9</v>
+      </c>
       <c r="R8" t="n">
-        <v>7</v>
-      </c>
-      <c r="S8" t="n">
-        <v>10</v>
-      </c>
-      <c r="T8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1048,68 +1010,62 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>stimuli/house/house_09.jpg</t>
+          <t>stimuli/jacket/jacket_10.jpg</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>stimuli/bicycle/bicycle_20.jpg</t>
+          <t>stimuli/bread/bread_26.jpg</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>stimuli/flower/flower_02.jpg</t>
+          <t>stimuli/bicycle/bicycle_33.jpg</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>stimuli/bicycle/bicycle_20.jpg</t>
+          <t>stimuli/bread/bread_26.jpg</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>stimuli/flower/flower_02.jpg</t>
+          <t>stimuli/bicycle/bicycle_33.jpg</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>left</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="P9" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Q9" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
       <c r="R9" t="n">
-        <v>9</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2</v>
-      </c>
-      <c r="T9" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1126,57 +1082,57 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>stimuli/hand/hand_36.jpg</t>
+          <t>stimuli/bread/bread_26.jpg</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>stimuli/bread/bread_28.jpg</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr"/>
+          <t>stimuli/jacket/jacket_10.jpg</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>stimuli/flower/flower_13.jpg</t>
+        </is>
+      </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>stimuli/jacket/jacket_10.jpg</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>stimuli/flower/flower_13.jpg</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>left</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>2</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O10" t="n">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="P10" t="n">
-        <v>0.2</v>
+        <v>3</v>
       </c>
       <c r="Q10" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R10" t="n">
-        <v>8</v>
-      </c>
-      <c r="S10" t="n">
-        <v>3</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1198,12 +1154,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>stimuli/flower/flower_02.jpg</t>
+          <t>stimuli/chair/chair_06.jpg</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>stimuli/chair/chair_21.jpg</t>
+          <t>stimuli/dog/dog_11.jpg</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -1219,35 +1175,33 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>3</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.2</v>
+      </c>
       <c r="O11" t="n">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="P11" t="n">
-        <v>0.2</v>
+        <v>4</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R11" t="n">
-        <v>6</v>
-      </c>
-      <c r="S11" t="n">
-        <v>4</v>
-      </c>
-      <c r="T11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1270,12 +1224,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>stimuli/ball/ball_15.jpg</t>
+          <t>stimuli/ball/ball_18.jpg</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>stimuli/bread/bread_07.jpg</t>
+          <t>stimuli/house/house_29.jpg</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -1287,31 +1241,29 @@
           <t>2</t>
         </is>
       </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2</v>
+      </c>
       <c r="O12" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="P12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>9</v>
+      </c>
       <c r="R12" t="n">
-        <v>1</v>
-      </c>
-      <c r="S12" t="n">
-        <v>3</v>
-      </c>
-      <c r="T12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1328,23 +1280,27 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>stimuli/flower/flower_06.jpg</t>
+          <t>stimuli/bread/bread_31.jpg</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>stimuli/hammer/hammer_36.jpg</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr"/>
+          <t>stimuli/flower/flower_02.jpg</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>stimuli/hammer/hammer_15.jpg</t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>stimuli/flower/flower_02.jpg</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>stimuli/hammer/hammer_15.jpg</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1357,28 +1313,24 @@
           <t>right</t>
         </is>
       </c>
-      <c r="L13" t="n">
-        <v>2</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O13" t="n">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="P13" t="n">
-        <v>0.2</v>
+        <v>3</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R13" t="n">
-        <v>6</v>
-      </c>
-      <c r="S13" t="n">
         <v>7</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1400,12 +1352,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>stimuli/jacket/jacket_39.jpg</t>
+          <t>stimuli/dog/dog_37.jpg</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>stimuli/hand/hand_05.jpg</t>
+          <t>stimuli/flower/flower_02.jpg</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -1430,26 +1382,24 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.2</v>
+      </c>
       <c r="O14" t="n">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="P14" t="n">
-        <v>0.2</v>
+        <v>5</v>
       </c>
       <c r="Q14" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R14" t="n">
-        <v>10</v>
-      </c>
-      <c r="S14" t="n">
-        <v>8</v>
-      </c>
-      <c r="T14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1472,68 +1422,62 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>stimuli/house/house_01.jpg</t>
+          <t>stimuli/chair/chair_15.jpg</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>stimuli/jacket/jacket_39.jpg</t>
+          <t>stimuli/jacket/jacket_16.jpg</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>stimuli/chair/chair_07.jpg</t>
+          <t>stimuli/hand/hand_40.jpg</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>stimuli/jacket/jacket_39.jpg</t>
+          <t>stimuli/jacket/jacket_16.jpg</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>stimuli/chair/chair_07.jpg</t>
+          <t>stimuli/hand/hand_40.jpg</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>right</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
+          <t>left</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>3</v>
       </c>
-      <c r="M15" t="n">
-        <v>5</v>
-      </c>
       <c r="N15" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="O15" t="n">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="P15" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Q15" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>10</v>
+      </c>
       <c r="R15" t="n">
-        <v>9</v>
-      </c>
-      <c r="S15" t="n">
-        <v>10</v>
-      </c>
-      <c r="T15" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1550,27 +1494,23 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>stimuli/bicycle/bicycle_33.jpg</t>
+          <t>stimuli/hand/hand_40.jpg</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>stimuli/dog/dog_01.jpg</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>stimuli/hand/hand_05.jpg</t>
-        </is>
-      </c>
+          <t>stimuli/bicycle/bicycle_21.jpg</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>stimuli/dog/dog_01.jpg</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>stimuli/hand/hand_05.jpg</t>
+          <t>no</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1584,86 +1524,94 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P16" t="n">
         <v>8</v>
       </c>
-      <c r="O16" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Q16" t="inlineStr"/>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
       <c r="R16" t="n">
-        <v>2</v>
-      </c>
-      <c r="S16" t="n">
-        <v>5</v>
-      </c>
-      <c r="T16" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>stimuli/bread/bread_26.jpg</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>stimuli/hammer/hammer_21.jpg</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P17" t="n">
         <v>3</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>2</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>stimuli/hammer/hammer_39.jpg</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>stimuli/chair/chair_21.jpg</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>3</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="n">
-        <v>2</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q17" t="inlineStr"/>
+      <c r="Q17" t="n">
+        <v>7</v>
+      </c>
       <c r="R17" t="n">
-        <v>7</v>
-      </c>
-      <c r="S17" t="n">
-        <v>4</v>
-      </c>
-      <c r="T17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1686,12 +1634,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>stimuli/flower/flower_02.jpg</t>
+          <t>stimuli/bicycle/bicycle_33.jpg</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>stimuli/jacket/jacket_37.jpg</t>
+          <t>stimuli/hand/hand_28.jpg</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1716,32 +1664,30 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.2</v>
+      </c>
       <c r="O18" t="n">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="P18" t="n">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R18" t="n">
-        <v>6</v>
-      </c>
-      <c r="S18" t="n">
-        <v>10</v>
-      </c>
-      <c r="T18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1758,68 +1704,46 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>stimuli/house/house_09.jpg</t>
+          <t>stimuli/chair/chair_06.jpg</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>stimuli/bread/bread_28.jpg</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>stimuli/flower/flower_02.jpg</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>stimuli/bread/bread_28.jpg</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>stimuli/flower/flower_02.jpg</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
+          <t>stimuli/jacket/jacket_10.jpg</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>left</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P19" t="n">
         <v>4</v>
       </c>
-      <c r="M19" t="n">
-        <v>4</v>
-      </c>
-      <c r="N19" t="n">
-        <v>6</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Q19" t="inlineStr"/>
+      <c r="Q19" t="n">
+        <v>10</v>
+      </c>
       <c r="R19" t="n">
-        <v>9</v>
-      </c>
-      <c r="S19" t="n">
-        <v>3</v>
-      </c>
-      <c r="T19" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1836,23 +1760,27 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>stimuli/ball/ball_16.jpg</t>
+          <t>stimuli/house/house_08.jpg</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>stimuli/dog/dog_10.jpg</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr"/>
+          <t>stimuli/ball/ball_28.jpg</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>stimuli/jacket/jacket_10.jpg</t>
+        </is>
+      </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>stimuli/ball/ball_28.jpg</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>stimuli/jacket/jacket_10.jpg</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1865,28 +1793,24 @@
           <t>left</t>
         </is>
       </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O20" t="n">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="P20" t="n">
-        <v>0.2</v>
+        <v>9</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
       </c>
       <c r="R20" t="n">
-        <v>1</v>
-      </c>
-      <c r="S20" t="n">
-        <v>5</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -1908,27 +1832,27 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>stimuli/bicycle/bicycle_20.jpg</t>
+          <t>stimuli/flower/flower_13.jpg</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>stimuli/ball/ball_16.jpg</t>
+          <t>stimuli/hammer/hammer_21.jpg</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>stimuli/hand/hand_36.jpg</t>
+          <t>stimuli/dog/dog_11.jpg</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>stimuli/ball/ball_16.jpg</t>
+          <t>stimuli/hammer/hammer_21.jpg</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>stimuli/hand/hand_36.jpg</t>
+          <t>stimuli/dog/dog_11.jpg</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1941,35 +1865,29 @@
           <t>right</t>
         </is>
       </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="P21" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Q21" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>7</v>
+      </c>
       <c r="R21" t="n">
-        <v>2</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1</v>
-      </c>
-      <c r="T21" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1986,43 +1904,57 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>stimuli/bread/bread_07.jpg</t>
+          <t>stimuli/bicycle/bicycle_21.jpg</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>stimuli/chair/chair_07.jpg</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+          <t>stimuli/dog/dog_37.jpg</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>stimuli/hammer/hammer_15.jpg</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>stimuli/dog/dog_37.jpg</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>stimuli/hammer/hammer_15.jpg</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>2</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O22" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="P22" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q22" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
       <c r="R22" t="n">
-        <v>3</v>
-      </c>
-      <c r="S22" t="n">
-        <v>4</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -2044,12 +1976,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>stimuli/dog/dog_01.jpg</t>
+          <t>stimuli/hand/hand_40.jpg</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>stimuli/bicycle/bicycle_33.jpg</t>
+          <t>stimuli/bread/bread_31.jpg</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -2074,26 +2006,24 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>4</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.2</v>
+      </c>
       <c r="O23" t="n">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="P23" t="n">
-        <v>0.2</v>
+        <v>8</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R23" t="n">
-        <v>5</v>
-      </c>
-      <c r="S23" t="n">
-        <v>2</v>
-      </c>
-      <c r="T23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2116,27 +2046,27 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>stimuli/flower/flower_06.jpg</t>
+          <t>stimuli/flower/flower_02.jpg</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>stimuli/bread/bread_07.jpg</t>
+          <t>stimuli/hand/hand_40.jpg</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>stimuli/hand/hand_05.jpg</t>
+          <t>stimuli/chair/chair_15.jpg</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>stimuli/bread/bread_07.jpg</t>
+          <t>stimuli/hand/hand_40.jpg</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>stimuli/hand/hand_05.jpg</t>
+          <t>stimuli/chair/chair_15.jpg</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2149,35 +2079,29 @@
           <t>right</t>
         </is>
       </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N24" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="O24" t="n">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="P24" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Q24" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>8</v>
+      </c>
       <c r="R24" t="n">
-        <v>6</v>
-      </c>
-      <c r="S24" t="n">
-        <v>3</v>
-      </c>
-      <c r="T24" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2194,62 +2118,46 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>stimuli/ball/ball_15.jpg</t>
+          <t>stimuli/house/house_29.jpg</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>stimuli/house/house_01.jpg</t>
+          <t>stimuli/dog/dog_37.jpg</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
-          <t>left</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="n">
+        <v>2</v>
+      </c>
       <c r="O25" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="P25" t="n">
-        <v>0.2</v>
+        <v>9</v>
       </c>
       <c r="Q25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R25" t="n">
-        <v>1</v>
-      </c>
-      <c r="S25" t="n">
-        <v>9</v>
-      </c>
-      <c r="T25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2266,27 +2174,23 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>stimuli/hammer/hammer_36.jpg</t>
+          <t>stimuli/ball/ball_18.jpg</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>stimuli/jacket/jacket_39.jpg</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>stimuli/hand/hand_05.jpg</t>
-        </is>
-      </c>
+          <t>stimuli/jacket/jacket_16.jpg</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>stimuli/jacket/jacket_39.jpg</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>stimuli/hand/hand_05.jpg</t>
+          <t>no</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2300,34 +2204,30 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="O26" t="n">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="P26" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Q26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>10</v>
+      </c>
       <c r="R26" t="n">
-        <v>7</v>
-      </c>
-      <c r="S26" t="n">
-        <v>10</v>
-      </c>
-      <c r="T26" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2344,42 +2244,54 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>stimuli/chair/chair_21.jpg</t>
+          <t>stimuli/jacket/jacket_10.jpg</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>stimuli/dog/dog_10.jpg</t>
+          <t>stimuli/dog/dog_11.jpg</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>left</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>4</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1.2</v>
+      </c>
       <c r="O27" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="P27" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q27" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
       <c r="R27" t="n">
-        <v>4</v>
-      </c>
-      <c r="S27" t="n">
-        <v>5</v>
-      </c>
-      <c r="T27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2402,68 +2314,62 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>stimuli/hammer/hammer_39.jpg</t>
+          <t>stimuli/house/house_08.jpg</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>stimuli/ball/ball_16.jpg</t>
+          <t>stimuli/ball/ball_28.jpg</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>stimuli/house/house_09.jpg</t>
+          <t>stimuli/chair/chair_06.jpg</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>stimuli/ball/ball_16.jpg</t>
+          <t>stimuli/ball/ball_28.jpg</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>stimuli/house/house_09.jpg</t>
+          <t>stimuli/chair/chair_06.jpg</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>right</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N28" t="n">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="O28" t="n">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="P28" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Q28" t="inlineStr"/>
+        <v>9</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
       <c r="R28" t="n">
-        <v>7</v>
-      </c>
-      <c r="S28" t="n">
-        <v>1</v>
-      </c>
-      <c r="T28" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2480,63 +2386,41 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>stimuli/bicycle/bicycle_20.jpg</t>
+          <t>stimuli/bicycle/bicycle_33.jpg</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>stimuli/jacket/jacket_37.jpg</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>stimuli/flower/flower_02.jpg</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>stimuli/jacket/jacket_37.jpg</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>stimuli/flower/flower_02.jpg</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
+          <t>stimuli/bread/bread_26.jpg</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>left</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>2</v>
-      </c>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>2</v>
       </c>
       <c r="N29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O29" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="P29" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Q29" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
       <c r="R29" t="n">
-        <v>2</v>
-      </c>
-      <c r="S29" t="n">
-        <v>10</v>
-      </c>
-      <c r="T29" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2558,12 +2442,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>stimuli/bread/bread_28.jpg</t>
+          <t>stimuli/chair/chair_06.jpg</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>stimuli/flower/flower_02.jpg</t>
+          <t>stimuli/flower/flower_13.jpg</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -2579,41 +2463,39 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1.2</v>
+      </c>
       <c r="O30" t="n">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="P30" t="n">
-        <v>0.2</v>
+        <v>4</v>
       </c>
       <c r="Q30" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R30" t="n">
-        <v>3</v>
-      </c>
-      <c r="S30" t="n">
-        <v>6</v>
-      </c>
-      <c r="T30" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2630,62 +2512,62 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>stimuli/ball/ball_16.jpg</t>
+          <t>stimuli/hammer/hammer_21.jpg</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>stimuli/hand/hand_36.jpg</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr"/>
+          <t>stimuli/hand/hand_28.jpg</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>stimuli/dog/dog_11.jpg</t>
+        </is>
+      </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>stimuli/hand/hand_28.jpg</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>stimuli/dog/dog_11.jpg</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>right</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>3</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O31" t="n">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="P31" t="n">
-        <v>0.2</v>
+        <v>7</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R31" t="n">
-        <v>1</v>
-      </c>
-      <c r="S31" t="n">
-        <v>8</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2702,62 +2584,46 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>stimuli/chair/chair_07.jpg</t>
+          <t>stimuli/bicycle/bicycle_21.jpg</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>stimuli/jacket/jacket_39.jpg</t>
+          <t>stimuli/flower/flower_02.jpg</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
-          <t>left</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="n">
+        <v>2</v>
+      </c>
       <c r="O32" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="P32" t="n">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="Q32" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R32" t="n">
-        <v>4</v>
-      </c>
-      <c r="S32" t="n">
-        <v>10</v>
-      </c>
-      <c r="T32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2774,42 +2640,54 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>stimuli/hammer/hammer_36.jpg</t>
+          <t>stimuli/ball/ball_18.jpg</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>stimuli/hand/hand_05.jpg</t>
+          <t>stimuli/bread/bread_31.jpg</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>right</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>4</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1.2</v>
+      </c>
       <c r="O33" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="P33" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>3</v>
+      </c>
       <c r="R33" t="n">
-        <v>7</v>
-      </c>
-      <c r="S33" t="n">
-        <v>8</v>
-      </c>
-      <c r="T33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2832,12 +2710,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>stimuli/flower/flower_06.jpg</t>
+          <t>stimuli/house/house_29.jpg</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>stimuli/bread/bread_07.jpg</t>
+          <t>stimuli/dog/dog_37.jpg</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -2853,35 +2731,33 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>3</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1.2</v>
+      </c>
       <c r="O34" t="n">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="P34" t="n">
-        <v>0.2</v>
+        <v>9</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R34" t="n">
-        <v>6</v>
-      </c>
-      <c r="S34" t="n">
-        <v>3</v>
-      </c>
-      <c r="T34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2904,27 +2780,27 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>stimuli/bicycle/bicycle_33.jpg</t>
+          <t>stimuli/hammer/hammer_15.jpg</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>stimuli/flower/flower_06.jpg</t>
+          <t>stimuli/house/house_29.jpg</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>stimuli/ball/ball_15.jpg</t>
+          <t>stimuli/chair/chair_15.jpg</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>stimuli/flower/flower_06.jpg</t>
+          <t>stimuli/house/house_29.jpg</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>stimuli/ball/ball_15.jpg</t>
+          <t>stimuli/chair/chair_15.jpg</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2937,30 +2813,24 @@
           <t>right</t>
         </is>
       </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="O35" t="n">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="P35" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Q35" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>9</v>
+      </c>
       <c r="R35" t="n">
-        <v>2</v>
-      </c>
-      <c r="S35" t="n">
-        <v>6</v>
-      </c>
-      <c r="T35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
@@ -2982,27 +2852,27 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>stimuli/house/house_01.jpg</t>
+          <t>stimuli/hand/hand_40.jpg</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>stimuli/dog/dog_01.jpg</t>
+          <t>stimuli/jacket/jacket_16.jpg</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>stimuli/chair/chair_07.jpg</t>
+          <t>stimuli/flower/flower_02.jpg</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>stimuli/dog/dog_01.jpg</t>
+          <t>stimuli/jacket/jacket_16.jpg</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>stimuli/chair/chair_07.jpg</t>
+          <t>stimuli/flower/flower_02.jpg</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -3015,30 +2885,24 @@
           <t>left</t>
         </is>
       </c>
-      <c r="L36" t="n">
-        <v>2</v>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N36" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="O36" t="n">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="P36" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Q36" t="inlineStr"/>
+        <v>8</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>10</v>
+      </c>
       <c r="R36" t="n">
-        <v>9</v>
-      </c>
-      <c r="S36" t="n">
-        <v>5</v>
-      </c>
-      <c r="T36" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37">
@@ -3060,68 +2924,62 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>stimuli/hammer/hammer_39.jpg</t>
+          <t>stimuli/house/house_08.jpg</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>stimuli/bicycle/bicycle_20.jpg</t>
+          <t>stimuli/flower/flower_13.jpg</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>stimuli/flower/flower_02.jpg</t>
+          <t>stimuli/hammer/hammer_21.jpg</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>stimuli/bicycle/bicycle_20.jpg</t>
+          <t>stimuli/flower/flower_13.jpg</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>stimuli/flower/flower_02.jpg</t>
+          <t>stimuli/hammer/hammer_21.jpg</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>left</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>7</v>
+        <v>1.5</v>
       </c>
       <c r="O37" t="n">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="P37" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Q37" t="inlineStr"/>
+        <v>9</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>6</v>
+      </c>
       <c r="R37" t="n">
         <v>7</v>
       </c>
-      <c r="S37" t="n">
-        <v>2</v>
-      </c>
-      <c r="T37" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -3138,27 +2996,23 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>stimuli/house/house_09.jpg</t>
+          <t>stimuli/chair/chair_06.jpg</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>stimuli/dog/dog_10.jpg</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>stimuli/jacket/jacket_37.jpg</t>
-        </is>
-      </c>
+          <t>stimuli/dog/dog_11.jpg</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>stimuli/dog/dog_10.jpg</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>stimuli/jacket/jacket_37.jpg</t>
+          <t>no</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -3172,34 +3026,30 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N38" t="n">
-        <v>7</v>
+        <v>1.2</v>
       </c>
       <c r="O38" t="n">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="P38" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Q38" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
       <c r="R38" t="n">
-        <v>9</v>
-      </c>
-      <c r="S38" t="n">
-        <v>5</v>
-      </c>
-      <c r="T38" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -3216,23 +3066,27 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>stimuli/ball/ball_16.jpg</t>
+          <t>stimuli/jacket/jacket_10.jpg</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>stimuli/flower/flower_02.jpg</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr"/>
+          <t>stimuli/bicycle/bicycle_33.jpg</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>stimuli/dog/dog_11.jpg</t>
+        </is>
+      </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>stimuli/bicycle/bicycle_33.jpg</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>stimuli/dog/dog_11.jpg</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -3245,33 +3099,29 @@
           <t>left</t>
         </is>
       </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O39" t="n">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="P39" t="n">
-        <v>0.2</v>
+        <v>10</v>
       </c>
       <c r="Q39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R39" t="n">
-        <v>1</v>
-      </c>
-      <c r="S39" t="n">
-        <v>6</v>
-      </c>
-      <c r="T39" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -3288,62 +3138,46 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>stimuli/dog/dog_10.jpg</t>
+          <t>stimuli/flower/flower_13.jpg</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>stimuli/chair/chair_21.jpg</t>
+          <t>stimuli/bread/bread_26.jpg</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>right</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>4</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="n">
+        <v>2</v>
+      </c>
       <c r="O40" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="P40" t="n">
-        <v>0.2</v>
+        <v>6</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R40" t="n">
-        <v>5</v>
-      </c>
-      <c r="S40" t="n">
-        <v>4</v>
-      </c>
-      <c r="T40" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -3360,48 +3194,60 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>stimuli/hand/hand_36.jpg</t>
+          <t>stimuli/ball/ball_28.jpg</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>stimuli/bread/bread_28.jpg</t>
+          <t>stimuli/hand/hand_28.jpg</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>left</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1.2</v>
+      </c>
       <c r="O41" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="P41" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>8</v>
+      </c>
       <c r="R41" t="n">
-        <v>8</v>
-      </c>
-      <c r="S41" t="n">
-        <v>3</v>
-      </c>
-      <c r="T41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -3418,27 +3264,23 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>stimuli/bicycle/bicycle_33.jpg</t>
+          <t>stimuli/dog/dog_37.jpg</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>stimuli/bread/bread_07.jpg</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>stimuli/hand/hand_05.jpg</t>
-        </is>
-      </c>
+          <t>stimuli/flower/flower_02.jpg</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>stimuli/bread/bread_07.jpg</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>stimuli/hand/hand_05.jpg</t>
+          <t>no</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3452,34 +3294,30 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>8</v>
+        <v>1.2</v>
       </c>
       <c r="O42" t="n">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="P42" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Q42" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>6</v>
+      </c>
       <c r="R42" t="n">
-        <v>2</v>
-      </c>
-      <c r="S42" t="n">
-        <v>3</v>
-      </c>
-      <c r="T42" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -3496,62 +3334,46 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>stimuli/chair/chair_07.jpg</t>
+          <t>stimuli/bread/bread_31.jpg</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>stimuli/hammer/hammer_36.jpg</t>
+          <t>stimuli/hammer/hammer_15.jpg</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
-          <t>right</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="n">
+        <v>2</v>
+      </c>
       <c r="O43" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="P43" t="n">
-        <v>0.2</v>
+        <v>3</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R43" t="n">
-        <v>4</v>
-      </c>
-      <c r="S43" t="n">
-        <v>7</v>
-      </c>
-      <c r="T43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -3568,48 +3390,62 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>stimuli/ball/ball_15.jpg</t>
+          <t>stimuli/jacket/jacket_16.jpg</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>stimuli/dog/dog_01.jpg</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+          <t>stimuli/flower/flower_02.jpg</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>stimuli/chair/chair_15.jpg</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>stimuli/flower/flower_02.jpg</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>stimuli/chair/chair_15.jpg</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
+          <t>right</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="n">
         <v>3</v>
       </c>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
+      <c r="N44" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O44" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="P44" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q44" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>6</v>
+      </c>
       <c r="R44" t="n">
-        <v>1</v>
-      </c>
-      <c r="S44" t="n">
-        <v>5</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -3626,27 +3462,23 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>stimuli/house/house_01.jpg</t>
+          <t>stimuli/ball/ball_18.jpg</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>stimuli/jacket/jacket_39.jpg</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>stimuli/flower/flower_06.jpg</t>
-        </is>
-      </c>
+          <t>stimuli/house/house_29.jpg</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
-          <t>stimuli/jacket/jacket_39.jpg</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>stimuli/flower/flower_06.jpg</t>
+          <t>no</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -3660,34 +3492,30 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N45" t="n">
-        <v>5</v>
+        <v>1.2</v>
       </c>
       <c r="O45" t="n">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="P45" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Q45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>9</v>
+      </c>
       <c r="R45" t="n">
-        <v>9</v>
-      </c>
-      <c r="S45" t="n">
-        <v>10</v>
-      </c>
-      <c r="T45" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -3704,62 +3532,62 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>stimuli/jacket/jacket_39.jpg</t>
+          <t>stimuli/hand/hand_40.jpg</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>stimuli/hand/hand_05.jpg</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr"/>
+          <t>stimuli/chair/chair_15.jpg</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>stimuli/bicycle/bicycle_21.jpg</t>
+        </is>
+      </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>stimuli/chair/chair_15.jpg</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>stimuli/bicycle/bicycle_21.jpg</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>left</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O46" t="n">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="P46" t="n">
-        <v>0.2</v>
+        <v>8</v>
       </c>
       <c r="Q46" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R46" t="n">
-        <v>10</v>
-      </c>
-      <c r="S46" t="n">
-        <v>8</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -3776,63 +3604,55 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>stimuli/hammer/hammer_39.jpg</t>
+          <t>stimuli/hammer/hammer_21.jpg</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>stimuli/chair/chair_21.jpg</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>stimuli/hand/hand_36.jpg</t>
-        </is>
-      </c>
+          <t>stimuli/house/house_08.jpg</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>stimuli/chair/chair_21.jpg</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>stimuli/hand/hand_36.jpg</t>
+          <t>no</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="O47" t="n">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="P47" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Q47" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>9</v>
+      </c>
       <c r="R47" t="n">
-        <v>7</v>
-      </c>
-      <c r="S47" t="n">
-        <v>4</v>
-      </c>
-      <c r="T47" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -3854,63 +3674,57 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>stimuli/house/house_09.jpg</t>
+          <t>stimuli/chair/chair_06.jpg</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>stimuli/jacket/jacket_37.jpg</t>
+          <t>stimuli/hand/hand_28.jpg</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>stimuli/bread/bread_28.jpg</t>
+          <t>stimuli/bicycle/bicycle_33.jpg</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>stimuli/jacket/jacket_37.jpg</t>
+          <t>stimuli/hand/hand_28.jpg</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>stimuli/bread/bread_28.jpg</t>
+          <t>stimuli/bicycle/bicycle_33.jpg</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>left</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>3</v>
-      </c>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P48" t="n">
         <v>4</v>
       </c>
-      <c r="O48" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P48" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Q48" t="inlineStr"/>
+      <c r="Q48" t="n">
+        <v>8</v>
+      </c>
       <c r="R48" t="n">
-        <v>9</v>
-      </c>
-      <c r="S48" t="n">
-        <v>10</v>
-      </c>
-      <c r="T48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
@@ -3932,12 +3746,12 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>stimuli/bread/bread_28.jpg</t>
+          <t>stimuli/flower/flower_13.jpg</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>stimuli/chair/chair_21.jpg</t>
+          <t>stimuli/hand/hand_28.jpg</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -3953,35 +3767,33 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="n">
+        <v>1.2</v>
+      </c>
       <c r="O49" t="n">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="P49" t="n">
-        <v>0.2</v>
+        <v>6</v>
       </c>
       <c r="Q49" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R49" t="n">
-        <v>3</v>
-      </c>
-      <c r="S49" t="n">
-        <v>4</v>
-      </c>
-      <c r="T49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4004,12 +3816,12 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>stimuli/bicycle/bicycle_20.jpg</t>
+          <t>stimuli/ball/ball_28.jpg</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>stimuli/ball/ball_16.jpg</t>
+          <t>stimuli/bread/bread_26.jpg</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
@@ -4018,34 +3830,32 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>4</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="n">
+        <v>2</v>
+      </c>
       <c r="O50" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="P50" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
       <c r="R50" t="n">
-        <v>2</v>
-      </c>
-      <c r="S50" t="n">
-        <v>1</v>
-      </c>
-      <c r="T50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -4062,23 +3872,27 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>stimuli/flower/flower_02.jpg</t>
+          <t>stimuli/jacket/jacket_10.jpg</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>stimuli/dog/dog_10.jpg</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr"/>
+          <t>stimuli/dog/dog_11.jpg</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>stimuli/house/house_08.jpg</t>
+        </is>
+      </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>stimuli/dog/dog_11.jpg</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>stimuli/house/house_08.jpg</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -4091,28 +3905,24 @@
           <t>left</t>
         </is>
       </c>
-      <c r="L51" t="n">
-        <v>0</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O51" t="n">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="P51" t="n">
-        <v>0.2</v>
+        <v>10</v>
       </c>
       <c r="Q51" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R51" t="n">
-        <v>6</v>
-      </c>
-      <c r="S51" t="n">
-        <v>5</v>
-      </c>
-      <c r="T51" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52">
@@ -4134,12 +3944,12 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>stimuli/hammer/hammer_36.jpg</t>
+          <t>stimuli/hammer/hammer_15.jpg</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>stimuli/jacket/jacket_39.jpg</t>
+          <t>stimuli/dog/dog_37.jpg</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
@@ -4148,34 +3958,32 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>3</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>2</v>
+      </c>
       <c r="O52" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="P52" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q52" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
       <c r="R52" t="n">
-        <v>7</v>
-      </c>
-      <c r="S52" t="n">
-        <v>10</v>
-      </c>
-      <c r="T52" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -4192,27 +4000,23 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>stimuli/house/house_01.jpg</t>
+          <t>stimuli/hand/hand_40.jpg</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>stimuli/jacket/jacket_39.jpg</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>stimuli/flower/flower_06.jpg</t>
-        </is>
-      </c>
+          <t>stimuli/jacket/jacket_16.jpg</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
-          <t>stimuli/jacket/jacket_39.jpg</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>stimuli/flower/flower_06.jpg</t>
+          <t>no</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -4226,29 +4030,25 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N53" t="n">
-        <v>5</v>
+        <v>1.2</v>
       </c>
       <c r="O53" t="n">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="P53" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Q53" t="inlineStr"/>
+        <v>8</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>10</v>
+      </c>
       <c r="R53" t="n">
-        <v>9</v>
-      </c>
-      <c r="S53" t="n">
-        <v>10</v>
-      </c>
-      <c r="T53" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -4270,68 +4070,62 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>stimuli/bread/bread_07.jpg</t>
+          <t>stimuli/house/house_29.jpg</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>stimuli/dog/dog_01.jpg</t>
+          <t>stimuli/hammer/hammer_15.jpg</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>stimuli/chair/chair_07.jpg</t>
+          <t>stimuli/chair/chair_15.jpg</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>stimuli/dog/dog_01.jpg</t>
+          <t>stimuli/hammer/hammer_15.jpg</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>stimuli/chair/chair_07.jpg</t>
+          <t>stimuli/chair/chair_15.jpg</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>left</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N54" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="O54" t="n">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="P54" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Q54" t="inlineStr"/>
+        <v>9</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>7</v>
+      </c>
       <c r="R54" t="n">
-        <v>3</v>
-      </c>
-      <c r="S54" t="n">
-        <v>5</v>
-      </c>
-      <c r="T54" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -4348,57 +4142,57 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>stimuli/hand/hand_05.jpg</t>
+          <t>stimuli/ball/ball_18.jpg</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>stimuli/chair/chair_07.jpg</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr"/>
+          <t>stimuli/bicycle/bicycle_21.jpg</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>stimuli/dog/dog_37.jpg</t>
+        </is>
+      </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>stimuli/bicycle/bicycle_21.jpg</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>stimuli/dog/dog_37.jpg</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>right</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>2</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O55" t="n">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="P55" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="Q55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R55" t="n">
-        <v>8</v>
-      </c>
-      <c r="S55" t="n">
-        <v>4</v>
-      </c>
-      <c r="T55" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56">
@@ -4420,12 +4214,12 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>stimuli/bicycle/bicycle_33.jpg</t>
+          <t>stimuli/bread/bread_31.jpg</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>stimuli/ball/ball_15.jpg</t>
+          <t>stimuli/flower/flower_02.jpg</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
@@ -4450,32 +4244,30 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>0</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="n">
+        <v>1.2</v>
+      </c>
       <c r="O56" t="n">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="P56" t="n">
-        <v>0.2</v>
+        <v>3</v>
       </c>
       <c r="Q56" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R56" t="n">
-        <v>2</v>
-      </c>
-      <c r="S56" t="n">
-        <v>1</v>
-      </c>
-      <c r="T56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -4492,56 +4284,40 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>stimuli/flower/flower_02.jpg</t>
+          <t>stimuli/chair/chair_06.jpg</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>stimuli/hand/hand_36.jpg</t>
+          <t>stimuli/dog/dog_11.jpg</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
-          <t>right</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="n">
         <v>4</v>
       </c>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
+      <c r="N57" t="n">
+        <v>2</v>
+      </c>
       <c r="O57" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="P57" t="n">
-        <v>0.2</v>
+        <v>4</v>
       </c>
       <c r="Q57" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R57" t="n">
-        <v>6</v>
-      </c>
-      <c r="S57" t="n">
-        <v>8</v>
-      </c>
-      <c r="T57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4564,68 +4340,62 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>stimuli/hammer/hammer_39.jpg</t>
+          <t>stimuli/hammer/hammer_21.jpg</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>stimuli/hand/hand_36.jpg</t>
+          <t>stimuli/ball/ball_28.jpg</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>stimuli/bicycle/bicycle_20.jpg</t>
+          <t>stimuli/jacket/jacket_10.jpg</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>stimuli/hand/hand_36.jpg</t>
+          <t>stimuli/ball/ball_28.jpg</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>stimuli/bicycle/bicycle_20.jpg</t>
+          <t>stimuli/jacket/jacket_10.jpg</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>right</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N58" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="O58" t="n">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="P58" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Q58" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1</v>
+      </c>
       <c r="R58" t="n">
-        <v>7</v>
-      </c>
-      <c r="S58" t="n">
-        <v>8</v>
-      </c>
-      <c r="T58" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -4642,48 +4412,60 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>stimuli/jacket/jacket_37.jpg</t>
+          <t>stimuli/jacket/jacket_10.jpg</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>stimuli/dog/dog_10.jpg</t>
+          <t>stimuli/flower/flower_13.jpg</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>left</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>3</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>1.2</v>
+      </c>
       <c r="O59" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="P59" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q59" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>6</v>
+      </c>
       <c r="R59" t="n">
-        <v>10</v>
-      </c>
-      <c r="S59" t="n">
-        <v>5</v>
-      </c>
-      <c r="T59" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -4700,68 +4482,60 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>stimuli/bread/bread_28.jpg</t>
+          <t>stimuli/bicycle/bicycle_33.jpg</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>stimuli/ball/ball_16.jpg</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>stimuli/dog/dog_10.jpg</t>
-        </is>
-      </c>
+          <t>stimuli/bread/bread_26.jpg</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
-          <t>stimuli/ball/ball_16.jpg</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>stimuli/dog/dog_10.jpg</t>
+          <t>no</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
       <c r="L60" t="n">
         <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N60" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="O60" t="n">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="P60" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Q60" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
       <c r="R60" t="n">
-        <v>3</v>
-      </c>
-      <c r="S60" t="n">
-        <v>1</v>
-      </c>
-      <c r="T60" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -4778,57 +4552,57 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>stimuli/house/house_09.jpg</t>
+          <t>stimuli/house/house_08.jpg</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>stimuli/chair/chair_21.jpg</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr"/>
+          <t>stimuli/dog/dog_11.jpg</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>stimuli/hand/hand_28.jpg</t>
+        </is>
+      </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>stimuli/dog/dog_11.jpg</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>stimuli/hand/hand_28.jpg</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>left</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>2</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O61" t="n">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="P61" t="n">
-        <v>0.2</v>
+        <v>9</v>
       </c>
       <c r="Q61" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R61" t="n">
-        <v>9</v>
-      </c>
-      <c r="S61" t="n">
-        <v>4</v>
-      </c>
-      <c r="T61" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
